--- a/target/test-classes/VtigerTestCase.xlsx
+++ b/target/test-classes/VtigerTestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14235" windowHeight="6540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13200" windowHeight="2940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Rama</t>
   </si>
   <si>
-    <t>ram</t>
-  </si>
-  <si>
     <t>krishna</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Vamsi</t>
+  </si>
+  <si>
+    <t>Ramakrishan</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,38 +607,38 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
